--- a/data/2019_data.xlsx
+++ b/data/2019_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_ADF21ED5FBC1E9C78C160BA54BDDE35D512F56AB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A0007C02-6992-4728-B58F-49AD82908F29}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="285">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,559 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Sunflower (Spider-Man: Into The Spider-Verse)</t>
   </si>
   <si>
+    <t>Without Me</t>
+  </si>
+  <si>
+    <t>Bad Guy</t>
+  </si>
+  <si>
+    <t>Wow.</t>
+  </si>
+  <si>
+    <t>Happier</t>
+  </si>
+  <si>
+    <t>7 Rings</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Sicko Mode</t>
+  </si>
+  <si>
+    <t>Sucker</t>
+  </si>
+  <si>
+    <t>High Hopes</t>
+  </si>
+  <si>
+    <t>Thank U, Next</t>
+  </si>
+  <si>
+    <t>Truth Hurts</t>
+  </si>
+  <si>
+    <t>Dancing With A Stranger</t>
+  </si>
+  <si>
+    <t>Senorita</t>
+  </si>
+  <si>
+    <t>I Don't Care</t>
+  </si>
+  <si>
+    <t>Eastside</t>
+  </si>
+  <si>
+    <t>Going Bad</t>
+  </si>
+  <si>
+    <t>Shallow</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t>No Guidance</t>
+  </si>
+  <si>
+    <t>Girls Like You</t>
+  </si>
+  <si>
+    <t>Sweet But Psycho</t>
+  </si>
+  <si>
+    <t>Suge</t>
+  </si>
+  <si>
+    <t>Middle Child</t>
+  </si>
+  <si>
+    <t>Drip Too Hard</t>
+  </si>
+  <si>
+    <t>Someone You Loved</t>
+  </si>
+  <si>
+    <t>Ran$om</t>
+  </si>
+  <si>
+    <t>If I Can't Have You</t>
+  </si>
+  <si>
+    <t>Goodbyes</t>
+  </si>
+  <si>
+    <t>ZEZE</t>
+  </si>
+  <si>
+    <t>Better Now</t>
+  </si>
+  <si>
+    <t>Youngblood</t>
+  </si>
+  <si>
+    <t>Money In The Grave</t>
+  </si>
+  <si>
+    <t>Speechless</t>
+  </si>
+  <si>
+    <t>Break Up With Your Girlfriend, I'm Bored</t>
+  </si>
+  <si>
+    <t>Please Me</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>You Need To Calm Down</t>
+  </si>
+  <si>
+    <t>Panini</t>
+  </si>
+  <si>
+    <t>Look Back At It</t>
+  </si>
+  <si>
+    <t>A Lot</t>
+  </si>
+  <si>
+    <t>ME!</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Pop Out</t>
+  </si>
+  <si>
+    <t>Beautiful Crazy</t>
+  </si>
+  <si>
+    <t>Thotiana</t>
+  </si>
+  <si>
+    <t>Lucid Dreams</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Beautiful People</t>
+  </si>
+  <si>
+    <t>Wake Up In The Sky</t>
+  </si>
+  <si>
+    <t>Whiskey Glasses</t>
+  </si>
+  <si>
+    <t>God's Country</t>
+  </si>
+  <si>
+    <t>Be Alright</t>
+  </si>
+  <si>
+    <t>Pure Water</t>
+  </si>
+  <si>
+    <t>The Git Up</t>
+  </si>
+  <si>
+    <t>Taki Taki</t>
+  </si>
+  <si>
+    <t>Close To Me</t>
+  </si>
+  <si>
+    <t>Envy Me</t>
+  </si>
+  <si>
+    <t>You Say</t>
+  </si>
+  <si>
+    <t>Hey Look Ma, I Made It</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Beer Never Broke My Heart</t>
+  </si>
+  <si>
+    <t>The London</t>
+  </si>
+  <si>
+    <t>Con Calma</t>
+  </si>
+  <si>
+    <t>Murder On My Mind</t>
+  </si>
+  <si>
+    <t>When The Party's Over</t>
+  </si>
+  <si>
+    <t>Act Up</t>
+  </si>
+  <si>
+    <t>I Like It</t>
+  </si>
+  <si>
+    <t>Trampoline</t>
+  </si>
+  <si>
+    <t>Leave Me Alone</t>
+  </si>
+  <si>
+    <t>Breathin</t>
+  </si>
+  <si>
+    <t>Bury A Friend</t>
+  </si>
+  <si>
+    <t>Close Friends</t>
+  </si>
+  <si>
+    <t>Baby Shark</t>
+  </si>
+  <si>
+    <t>My Type</t>
+  </si>
+  <si>
+    <t>Worth It</t>
+  </si>
+  <si>
+    <t>Only Human</t>
+  </si>
+  <si>
+    <t>Knockin' Boots</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Rumor</t>
+  </si>
+  <si>
+    <t>Swervin</t>
+  </si>
+  <si>
+    <t>How Do You Sleep?</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Look What God Gave Her</t>
+  </si>
+  <si>
+    <t>Good As You</t>
+  </si>
+  <si>
+    <t>Clout</t>
+  </si>
+  <si>
+    <t>Love Lies</t>
+  </si>
+  <si>
+    <t>One Thing Right</t>
+  </si>
+  <si>
+    <t>Cash Shit</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Shotta Flow</t>
+  </si>
+  <si>
+    <t>Hot Girl Summer</t>
+  </si>
+  <si>
+    <t>Talk You Out Of It</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>Eyes On You</t>
+  </si>
+  <si>
+    <t>All To Myself</t>
+  </si>
+  <si>
+    <t>Boyfriend</t>
+  </si>
+  <si>
+    <t>Walk Me Home</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
     <t>Post Malone &amp; Swae Lee</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Marshmello &amp; Bastille</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Khalid</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t>Jonas Brothers</t>
+  </si>
+  <si>
+    <t>Panic! At The Disco</t>
+  </si>
+  <si>
+    <t>Lizzo</t>
+  </si>
+  <si>
+    <t>Sam Smith &amp; Normani</t>
+  </si>
+  <si>
+    <t>Shawn Mendes &amp; Camila Cabello</t>
+  </si>
+  <si>
+    <t>Ed Sheeran &amp; Justin Bieber</t>
+  </si>
+  <si>
+    <t>benny blanco, Halsey &amp; Khalid</t>
+  </si>
+  <si>
+    <t>Meek Mill Featuring Drake</t>
+  </si>
+  <si>
+    <t>Lady Gaga &amp; Bradley Cooper</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Drake</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Cardi B</t>
+  </si>
+  <si>
+    <t>Ava Max</t>
+  </si>
+  <si>
+    <t>DaBaby</t>
+  </si>
+  <si>
+    <t>J. Cole</t>
+  </si>
+  <si>
+    <t>Lil Baby &amp; Gunna</t>
+  </si>
+  <si>
+    <t>Lewis Capaldi</t>
+  </si>
+  <si>
+    <t>Lil Tecca</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Post Malone Featuring Young Thug</t>
+  </si>
+  <si>
+    <t>Kodak Black Featuring Travis Scott &amp; Offset</t>
+  </si>
+  <si>
+    <t>5 Seconds Of Summer</t>
+  </si>
+  <si>
+    <t>Drake Featuring Rick Ross</t>
+  </si>
+  <si>
+    <t>Dan + Shay</t>
+  </si>
+  <si>
+    <t>Cardi B &amp; Bruno Mars</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>A Boogie Wit da Hoodie</t>
+  </si>
+  <si>
+    <t>21 Savage</t>
+  </si>
+  <si>
+    <t>Taylor Swift Featuring Brendon Urie</t>
+  </si>
+  <si>
+    <t>Bad Bunny Featuring Drake</t>
+  </si>
+  <si>
+    <t>Polo G Featuring Lil Tjay</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>Blueface</t>
+  </si>
+  <si>
+    <t>Juice WRLD</t>
+  </si>
+  <si>
+    <t>Sheck Wes</t>
+  </si>
+  <si>
+    <t>Ed Sheeran Featuring Khalid</t>
+  </si>
+  <si>
+    <t>Gucci Mane X Bruno Mars X Kodak Black</t>
+  </si>
+  <si>
+    <t>Morgan Wallen</t>
+  </si>
+  <si>
+    <t>Blake Shelton</t>
+  </si>
+  <si>
+    <t>Dean Lewis</t>
+  </si>
+  <si>
+    <t>Mustard &amp; Migos</t>
+  </si>
+  <si>
+    <t>Blanco Brown</t>
+  </si>
+  <si>
+    <t>DJ Snake Featuring Selena Gomez, Ozuna &amp; Cardi B</t>
+  </si>
+  <si>
+    <t>Ellie Goulding X Diplo Featuring Swae Lee</t>
+  </si>
+  <si>
+    <t>Calboy</t>
+  </si>
+  <si>
+    <t>Lauren Daigle</t>
+  </si>
+  <si>
+    <t>Young Thug, J. Cole &amp; Travis Scott</t>
+  </si>
+  <si>
+    <t>Daddy Yankee &amp; Katy Perry Featuring Snow</t>
+  </si>
+  <si>
+    <t>YNW Melly</t>
+  </si>
+  <si>
+    <t>City Girls</t>
+  </si>
+  <si>
+    <t>Cardi B, Bad Bunny &amp; J Balvin</t>
+  </si>
+  <si>
+    <t>SHAED</t>
+  </si>
+  <si>
+    <t>Flipp Dinero</t>
+  </si>
+  <si>
+    <t>Lil Baby</t>
+  </si>
+  <si>
+    <t>Pinkfong</t>
+  </si>
+  <si>
+    <t>Saweetie</t>
+  </si>
+  <si>
+    <t>YK Osiris</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Ella Mai</t>
+  </si>
+  <si>
+    <t>Lee Brice</t>
+  </si>
+  <si>
+    <t>A Boogie Wit da Hoodie Featuring 6ix9ine</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Lil Baby &amp; DaBaby</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Kane Brown</t>
+  </si>
+  <si>
+    <t>Offset Featuring Cardi B</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Normani</t>
+  </si>
+  <si>
+    <t>Marshmello &amp; Kane Brown</t>
+  </si>
+  <si>
+    <t>Megan Thee Stallion Featuring DaBaby</t>
+  </si>
+  <si>
+    <t>NLE Choppa</t>
+  </si>
+  <si>
+    <t>Megan Thee Stallion, Nicki Minaj &amp; Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Bazzi Featuring Camila Cabello</t>
+  </si>
+  <si>
+    <t>Chase Rice</t>
+  </si>
+  <si>
+    <t>Ariana Grande &amp; Social House</t>
+  </si>
+  <si>
+    <t>P!nk</t>
   </si>
   <si>
     <t>Ayy, ayy, ayy, ayy (ooh)
@@ -78,12 +633,6 @@
 You're the sunflower
 You're the sunflower
 Yeah</t>
-  </si>
-  <si>
-    <t>Without Me</t>
-  </si>
-  <si>
-    <t>Halsey</t>
   </si>
   <si>
     <t>Found you when your heart was broke
@@ -144,12 +693,6 @@
 I don't know why (yeah, I don't know why)</t>
   </si>
   <si>
-    <t>Bad Guy</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
     <t>White shirt now red, my bloody nose
 Sleepin', you're on your tippy toes
 Creepin' around like no one knowsThink you're so criminal
@@ -195,12 +738,6 @@
 I'm a bad guy
 Bad guy
 I'm a bad</t>
-  </si>
-  <si>
-    <t>Wow.</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
   </si>
   <si>
     <t>Said she tired of little money, need a big boy
@@ -250,12 +787,6 @@
 Sayin', "Wow"
 Wow
 Wow</t>
-  </si>
-  <si>
-    <t>Happier</t>
-  </si>
-  <si>
-    <t>Marshmello &amp; Bastille</t>
   </si>
   <si>
     <t>Lately, I've been, I've been thinking
@@ -320,12 +851,6 @@
 I will go, go, go</t>
   </si>
   <si>
-    <t>7 Rings</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
     <t>Yuh, breakfast at Tiffany's and bottles of bubbles
 Girls with tattoos who like getting in trouble
 Lashes and diamonds, ATM machinesBuy myself all of my favorite things, yuh
@@ -377,12 +902,6 @@
 I see it, I like it, I want it, I got it (Yep)</t>
   </si>
   <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>Khalid</t>
-  </si>
-  <si>
     <t>Can we just talk? Can we just talk?
 Talk about where we're going
 Before we get lost, lend me me your thoughtsCan't get what we want without knowing
@@ -429,12 +948,6 @@
 Can we just talk?
 Figure out where we're going
 Figure out where we're going</t>
-  </si>
-  <si>
-    <t>Sicko Mode</t>
-  </si>
-  <si>
-    <t>Travis Scott</t>
   </si>
   <si>
     <t>Astro
@@ -536,12 +1049,6 @@
 Baby mama cover Forbes, got these other bitches shook, yeah</t>
   </si>
   <si>
-    <t>Sucker</t>
-  </si>
-  <si>
-    <t>Jonas Brothers</t>
-  </si>
-  <si>
     <t>We go together
 Better than birds of a feather, you and me
 We change the weather, yeahI'm feeling heat in December when you're 'round me
@@ -587,12 +1094,6 @@
 And you're making the typical me break my typical rules
 It's true, I'm a sucker for you
 I'm a sucker for you</t>
-  </si>
-  <si>
-    <t>High Hopes</t>
-  </si>
-  <si>
-    <t>Panic! At The Disco</t>
   </si>
   <si>
     <t>High, high hopes
@@ -655,9 +1156,6 @@
 Didn't know how, but I always had a feeling
 I was gonna be that one-in-a-million
 Always had high, high hopes (High, high hopes)</t>
-  </si>
-  <si>
-    <t>Thank U, Next</t>
   </si>
   <si>
     <t>Thought I'd end up with Sean
@@ -748,12 +1246,6 @@
 Yuh, yee</t>
   </si>
   <si>
-    <t>Truth Hurts</t>
-  </si>
-  <si>
-    <t>Lizzo</t>
-  </si>
-  <si>
     <t>Why men great 'til they gotta be great?
 WoohI just took a DNA test, turns out I'm 100% that bitch
 Even when I'm crying crazy
@@ -815,12 +1307,6 @@
 (I needed, yeah eh eh)</t>
   </si>
   <si>
-    <t>Dancing With A Stranger</t>
-  </si>
-  <si>
-    <t>Sam Smith &amp; Normani</t>
-  </si>
-  <si>
     <t>Hmm, hmm
 I don't wanna be alone tonight (Alone tonight)It's pretty clear that I'm not over you (Over you)
 I'm still thinking 'bout the things you do (Things you do)
@@ -859,12 +1345,6 @@
 I'm dancing, I'm dancing (Dancing with a Stranger)
 I'm dancing, I'm dancing (Dancing with a Stranger)
 I'm dancing, I'm dancing (Dancing with a Stranger)</t>
-  </si>
-  <si>
-    <t>Senorita</t>
-  </si>
-  <si>
-    <t>Shawn Mendes &amp; Camila Cabello</t>
   </si>
   <si>
     <t>I love it when you call me Señorita
@@ -922,12 +1402,6 @@
 For ya
 Ooh, I should be runnin'
 Ooh, you keep me coming for ya</t>
-  </si>
-  <si>
-    <t>I Don't Care</t>
-  </si>
-  <si>
-    <t>Ed Sheeran &amp; Justin Bieber</t>
   </si>
   <si>
     <t>I'm at a party I don't wanna be at
@@ -998,18 +1472,6 @@
 Ooh, ooh, ooh, ooh, ooh, ooh</t>
   </si>
   <si>
-    <t>Eastside</t>
-  </si>
-  <si>
-    <t>benny blanco, Halsey &amp; Khalid</t>
-  </si>
-  <si>
-    <t>Going Bad</t>
-  </si>
-  <si>
-    <t>Meek Mill Featuring Drake</t>
-  </si>
-  <si>
     <t>Yeah
 (Wheezy outta here)
 G, GBack home, smokin' legal (Legal)
@@ -1076,12 +1538,6 @@
 Wheezy outta here</t>
   </si>
   <si>
-    <t>Shallow</t>
-  </si>
-  <si>
-    <t>Lady Gaga &amp; Bradley Cooper</t>
-  </si>
-  <si>
     <t>Tell me somethin', girl
 Are you happy in this modern world?
 Or do you need more?Is there somethin' else you're searchin' for?
@@ -1114,9 +1570,6 @@
 In the sha-ha-sha-la-la-la-llow
 In the sha-ha-sha-ha-llow
 We're far from the shallow now</t>
-  </si>
-  <si>
-    <t>Better</t>
   </si>
   <si>
     <t>(Nothing feels better)
@@ -1169,12 +1622,6 @@
 Nothing feels better than this
 Better than this
 Nothing feels better than this oh yeah</t>
-  </si>
-  <si>
-    <t>No Guidance</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Drake</t>
   </si>
   <si>
     <t>Before I die I'm tryna f- you, baby
@@ -1249,12 +1696,6 @@
 (I don't, I don't)
 (I don't, I don't)
 No</t>
-  </si>
-  <si>
-    <t>Girls Like You</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Cardi B</t>
   </si>
   <si>
     <t>Spent 24 hours
@@ -1330,12 +1771,6 @@
 I need a girl like you, yeah, yeah
 Yeah, yeah, yeah, yeah, yeah, yeah
 I need a girl like you</t>
-  </si>
-  <si>
-    <t>Sweet But Psycho</t>
-  </si>
-  <si>
-    <t>Ava Max</t>
   </si>
   <si>
     <t>Oh, she's sweet but a psycho
@@ -1412,12 +1847,6 @@
 A little bit psycho
 At night she screamin'
 "I'm-ma-ma-ma out ma mind"</t>
-  </si>
-  <si>
-    <t>Suge</t>
-  </si>
-  <si>
-    <t>DaBaby</t>
   </si>
   <si>
     <t>Pooh, you a fool for this one
@@ -1532,12 +1961,6 @@
 Yeah, yeah</t>
   </si>
   <si>
-    <t>Middle Child</t>
-  </si>
-  <si>
-    <t>J. Cole</t>
-  </si>
-  <si>
     <t>You good, T-Minus?
 Niggas been countin' me outI'm countin' my bullets, I'm loadin' my clips
 I'm writin' down names, I'm makin' a list
@@ -1623,12 +2046,6 @@
 Money in your palm don't make you real</t>
   </si>
   <si>
-    <t>Drip Too Hard</t>
-  </si>
-  <si>
-    <t>Lil Baby &amp; Gunna</t>
-  </si>
-  <si>
     <t>Run that back, Turbo
 You can get the biggest Chanel bag in the store if you want itMan, I gave 'em the drip, they sucked it up, I got 'em on it
 I bought a new Patek, I had the watch, so I two-toned 'em
@@ -1687,12 +2104,6 @@
 Every other night, another movie getting made</t>
   </si>
   <si>
-    <t>Someone You Loved</t>
-  </si>
-  <si>
-    <t>Lewis Capaldi</t>
-  </si>
-  <si>
     <t>I'm going under and this time I fear there's no one to save me
 This all or nothing really got a way of driving me crazy
 I need somebody to healSomebody to know
@@ -1738,12 +2149,6 @@
 I let my guard down
 And then you pulled the rug
 I was getting kinda used to being someone you loved</t>
-  </si>
-  <si>
-    <t>Ran$om</t>
-  </si>
-  <si>
-    <t>Lil Tecca</t>
   </si>
   <si>
     <t>I got a lot cash on me
@@ -1831,12 +2236,6 @@
 Ain't no one ever ran through me</t>
   </si>
   <si>
-    <t>If I Can't Have You</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
     <t>I can't write one song that's not about you
 Can't drink without thinking about you
 Is it too late to tell you thatEverything means nothing if I can't have you?
@@ -1885,12 +2284,6 @@
 Can't drink without thinking about you
 Is it too late to tell you that
 Everything means nothing if I can't have you?</t>
-  </si>
-  <si>
-    <t>Goodbyes</t>
-  </si>
-  <si>
-    <t>Post Malone Featuring Young Thug</t>
   </si>
   <si>
     <t>Me and Kurt feel the same, too much pleasure is pain
@@ -1944,12 +2337,6 @@
 Goodbye, goodbye, goodbye
 Goodbye, goodbye, goodbye
 I'm no good at goodbyes</t>
-  </si>
-  <si>
-    <t>ZEZE</t>
-  </si>
-  <si>
-    <t>Kodak Black Featuring Travis Scott &amp; Offset</t>
   </si>
   <si>
     <t>D.A. got that dope!
@@ -2048,9 +2435,6 @@
 This that Z shit, this that Z shit (This that Z shit)</t>
   </si>
   <si>
-    <t>Better Now</t>
-  </si>
-  <si>
     <t>You pro'lly think that you are better now, better now
 You only say that 'cause I'm not around, not around
 You know I never meant to let you down, let you downWould've gave you anything
@@ -2112,12 +2496,6 @@
 You know I never meant to let you down, let you down
 Would've gave you anything
 Would've gave you everything, oh-woah</t>
-  </si>
-  <si>
-    <t>Youngblood</t>
-  </si>
-  <si>
-    <t>5 Seconds Of Summer</t>
   </si>
   <si>
     <t>Remember the words you told me
@@ -2183,12 +2561,6 @@
 Youngblood
 Say you want me, say you want me out of your life
 Then I'm just a dead man walking tonight</t>
-  </si>
-  <si>
-    <t>Money In The Grave</t>
-  </si>
-  <si>
-    <t>Drake Featuring Rick Ross</t>
   </si>
   <si>
     <t>Yeah, okay
@@ -2259,12 +2631,6 @@
 Ain't about to die with no money, I done gave you</t>
   </si>
   <si>
-    <t>Speechless</t>
-  </si>
-  <si>
-    <t>Dan + Shay</t>
-  </si>
-  <si>
     <t>You say you'll be down in five
 The smell of your perfume
 Is floatin' down the stairsYou're fixin' up your hair like you do
@@ -2314,9 +2680,6 @@
 Every time you walk into the room
 I'm speechless
 Oh, you know it baby</t>
-  </si>
-  <si>
-    <t>Break Up With Your Girlfriend, I'm Bored</t>
   </si>
   <si>
     <t>You got me some type of way (hmm)
@@ -2377,12 +2740,6 @@
 With your girlfriend
 With your girlfriend, girlfriend, girlfriend, girlfriend
 With your girlfriend</t>
-  </si>
-  <si>
-    <t>Please Me</t>
-  </si>
-  <si>
-    <t>Cardi B &amp; Bruno Mars</t>
   </si>
   <si>
     <t>Uh, uh, yeah, come on
@@ -2469,12 +2826,6 @@
 Please
 (Let me hear you say)
 Please (Woo)</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
   </si>
   <si>
     <t>Look, my bitches all bad, my niggas all real
@@ -2594,12 +2945,6 @@
 (Money)</t>
   </si>
   <si>
-    <t>You Need To Calm Down</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>You are somebody that I don't know
 But you're taking shots at me like it's Patrón
 And I'm just like "Damn, it's 7 AM"Say it in the street, that's a knock-out
@@ -2647,12 +2992,6 @@
 You need to calm down</t>
   </si>
   <si>
-    <t>Panini</t>
-  </si>
-  <si>
-    <t>Lil Nas X</t>
-  </si>
-  <si>
     <t>D-D-Daytrip took it to ten (hey)
 Ayy, Panini, don't you be a meanieThought you wanted me to go up
 Why you tryna keep me teeny? I
@@ -2678,12 +3017,6 @@
 Say to me what you want from me
 Just say to me what you want from me
 D-D-Daytrip took it to ten (hey)</t>
-  </si>
-  <si>
-    <t>Look Back At It</t>
-  </si>
-  <si>
-    <t>A Boogie Wit da Hoodie</t>
   </si>
   <si>
     <t>Look back at it
@@ -2740,12 +3073,6 @@
 Said she never made love, but she good at it
 I get goosebumps when I look at it
 All the girls just wanna have fun with me</t>
-  </si>
-  <si>
-    <t>A Lot</t>
-  </si>
-  <si>
-    <t>21 Savage</t>
   </si>
   <si>
     <t>I love you
@@ -2884,12 +3211,6 @@
 I break it down, I break it down, I br-</t>
   </si>
   <si>
-    <t>ME!</t>
-  </si>
-  <si>
-    <t>Taylor Swift Featuring Brendon Urie</t>
-  </si>
-  <si>
     <t>I promise that you'll never find another like me
 I know that I'm a handful baby, uh
 I know I never think before I jumpAnd you're the kind of guy the ladies want
@@ -2952,12 +3273,6 @@
 You're the only one of you
 Baby, that's the fun of you
 And I promise that nobody's gonna love you like me-eh-eh</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Bad Bunny Featuring Drake</t>
   </si>
   <si>
     <t>Bad Bunny, baby, bebé
@@ -3028,12 +3343,6 @@
 Cuando yo te lo hacía</t>
   </si>
   <si>
-    <t>Pop Out</t>
-  </si>
-  <si>
-    <t>Polo G Featuring Lil Tjay</t>
-  </si>
-  <si>
     <t>JD On Tha Track
 Iceberg want a bag, bitchWe pop out at your party, I'm with the gang
 And it's gon' be a robbery, so tuck ya chain
@@ -3097,12 +3406,6 @@
 'Cause they'll do the job for me while I hop on a plane</t>
   </si>
   <si>
-    <t>Beautiful Crazy</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
-  </si>
-  <si>
     <t>Her day starts with a coffee
 And ends with a wine
 Takes forever gettin' readySo she's never on time for anything
@@ -3143,12 +3446,6 @@
 She's crazy
 But her crazy's beautiful to me
 Her crazy's beautiful to me</t>
-  </si>
-  <si>
-    <t>Thotiana</t>
-  </si>
-  <si>
-    <t>Blueface</t>
   </si>
   <si>
     <t>Blueface, baby
@@ -3202,12 +3499,6 @@
 Speed it up, now slow that shit down, on the gang (Slow it down)
 Bust it (Bust down), bust down, bust it, bust it
 Bust down, on the gang (Over)</t>
-  </si>
-  <si>
-    <t>Lucid Dreams</t>
-  </si>
-  <si>
-    <t>Juice WRLD</t>
   </si>
   <si>
     <t>Enviyon on the mix
@@ -3291,12 +3582,6 @@
 I won't let you forget me</t>
   </si>
   <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Sheck Wes</t>
-  </si>
-  <si>
     <t>16yrold
 Bitch
 Daytrip took it to tenI got hoes...
@@ -3337,12 +3622,6 @@
 Ali, the Daytrip nigga, fuck is niggas talking about?
 I got hoes, shit
 Young Sheck Wes, I do it on the go</t>
-  </si>
-  <si>
-    <t>Beautiful People</t>
-  </si>
-  <si>
-    <t>Ed Sheeran Featuring Khalid</t>
   </si>
   <si>
     <t>We are, we are, we are
@@ -3393,12 +3672,6 @@
 We are not beautiful (Not beautiful)
 We are, we are, we are
 We are not beautiful</t>
-  </si>
-  <si>
-    <t>Wake Up In The Sky</t>
-  </si>
-  <si>
-    <t>Gucci Mane X Bruno Mars X Kodak Black</t>
   </si>
   <si>
     <t>Fly, fly, fly
@@ -3472,12 +3745,6 @@
 Now watch me fly, fly
 You can't tell me I ain't fly
 I know I'm super fly, I know I'm super fly...</t>
-  </si>
-  <si>
-    <t>Whiskey Glasses</t>
-  </si>
-  <si>
-    <t>Morgan Wallen</t>
   </si>
   <si>
     <t>Pour me, pour me another drink
@@ -3556,12 +3823,6 @@
 Yeah</t>
   </si>
   <si>
-    <t>God's Country</t>
-  </si>
-  <si>
-    <t>Blake Shelton</t>
-  </si>
-  <si>
     <t>Right outside of this one church town
 There's a gold dirt road to a whole lot of nothing
 Got a deed to the land but it ain't my groundThis is God's country
@@ -3606,12 +3867,6 @@
 Dixie whistle in the wind, that'll get you Heaven bound
 The devil went down to Georgia but he didn't stick around
 This is God's country</t>
-  </si>
-  <si>
-    <t>Be Alright</t>
-  </si>
-  <si>
-    <t>Dean Lewis</t>
   </si>
   <si>
     <t>I look up from the ground to see your sad and teary eyes
@@ -3666,12 +3921,6 @@
 It'll be alright
 It'll be alright
 It'll be alright</t>
-  </si>
-  <si>
-    <t>Pure Water</t>
-  </si>
-  <si>
-    <t>Mustard &amp; Migos</t>
   </si>
   <si>
     <t>Woo!
@@ -3762,12 +4011,6 @@
 Goodnight</t>
   </si>
   <si>
-    <t>The Git Up</t>
-  </si>
-  <si>
-    <t>Blanco Brown</t>
-  </si>
-  <si>
     <t>Right now
 I just need you to get real loose
 Get comfortableGrab your loved ones or grab your love partner
@@ -3829,12 +4072,6 @@
 Take it to the left now and dip with it
 Gon' throw down, take a sip with it
 Now lean back put your hips in it (whoo, whoo, whoo)</t>
-  </si>
-  <si>
-    <t>Taki Taki</t>
-  </si>
-  <si>
-    <t>DJ Snake Featuring Selena Gomez, Ozuna &amp; Cardi B</t>
   </si>
   <si>
     <t>Wooh, oh-oh
@@ -3922,12 +4159,6 @@
 Taki taki</t>
   </si>
   <si>
-    <t>Close To Me</t>
-  </si>
-  <si>
-    <t>Ellie Goulding X Diplo Featuring Swae Lee</t>
-  </si>
-  <si>
     <t>Even though we both know we're liars
 And we start each other's fires
 We just know that we'll be alrightEven though we're kicked out the party
@@ -3979,12 +4210,6 @@
 Close to me</t>
   </si>
   <si>
-    <t>Envy Me</t>
-  </si>
-  <si>
-    <t>Calboy</t>
-  </si>
-  <si>
     <t>Now I lay down to sleep (Now I lay down to sleep)
 I pray the Lord, my soul to keep (yeah)
 Like a locksmith, I got the keys (yeah)Pull up make opp niggas bleed (aye)
@@ -4033,12 +4258,6 @@
 I got money, they envy me</t>
   </si>
   <si>
-    <t>You Say</t>
-  </si>
-  <si>
-    <t>Lauren Daigle</t>
-  </si>
-  <si>
     <t>I keep fighting voices in my mind that say I'm not enough
 Every single lie that tells me I will never measure up
 Am I more than just the sum of every high and every lowRemind me once again just who I am because I need to know
@@ -4077,9 +4296,6 @@
 Yes I believe (I)
 What You say of me (I)
 I believe</t>
-  </si>
-  <si>
-    <t>Hey Look Ma, I Made It</t>
   </si>
   <si>
     <t>All my life, been hustling and tonight is my appraisal
@@ -4129,9 +4345,6 @@
 Hey Look Ma, I made it
 (Or I must be dreamin')
 Hey Look Ma, I made it</t>
-  </si>
-  <si>
-    <t>Circles</t>
   </si>
   <si>
     <t>Oh, oh, oh-oh
@@ -4189,9 +4402,6 @@
 Run away, run away, run away</t>
   </si>
   <si>
-    <t>Beer Never Broke My Heart</t>
-  </si>
-  <si>
     <t>I've had a largemouth, bass bust my line
 A couple of beautiful girls tell me goodbye
 Trucks break down, dogs run offPoliticians lie, gettin' fired by the boss
@@ -4228,12 +4438,6 @@
 That bars and this guitar
 And longneck, iced cold beer never broke my heart, no
 It never broke my heart</t>
-  </si>
-  <si>
-    <t>The London</t>
-  </si>
-  <si>
-    <t>Young Thug, J. Cole &amp; Travis Scott</t>
   </si>
   <si>
     <t>Yeah
@@ -4318,18 +4522,6 @@
 Yeah, they know what's up (Folks will say)</t>
   </si>
   <si>
-    <t>Con Calma</t>
-  </si>
-  <si>
-    <t>Daddy Yankee &amp; Katy Perry Featuring Snow</t>
-  </si>
-  <si>
-    <t>Murder On My Mind</t>
-  </si>
-  <si>
-    <t>YNW Melly</t>
-  </si>
-  <si>
     <t>I ain't get to roll no weed, ain't get to roll no swishers
 I was locked up on Christmas, ain't get to see my niggas
 Ain't get to hug my mama, couldn't even give her no kissesCan't even post on my Instagram
@@ -4397,9 +4589,6 @@
 I got murder on my mind</t>
   </si>
   <si>
-    <t>When The Party's Over</t>
-  </si>
-  <si>
     <t>Don't you know I'm no good for you?
 I've learned to lose, you can't afford to
 Tore my shirt to stop you bleedingBut nothin' ever stops you leaving
@@ -4424,12 +4613,6 @@
 And I'm on my own
 I could lie, say I like it like that, like it like that
 I could lie, say I like it like that, like it like that</t>
-  </si>
-  <si>
-    <t>Act Up</t>
-  </si>
-  <si>
-    <t>City Girls</t>
   </si>
   <si>
     <t>Earl on the beat
@@ -4488,12 +4671,6 @@
 Act up, you can get snatched up
 Act up, you can get snatched up
 Dirty ass nails, baby girl, you need to back up</t>
-  </si>
-  <si>
-    <t>I Like It</t>
-  </si>
-  <si>
-    <t>Cardi B, Bad Bunny &amp; J Balvin</t>
   </si>
   <si>
     <t>Yeah, baby, I like it like that
@@ -4593,12 +4770,6 @@
 Oh, he's so handsome, what's his name? Yeah (I said I like it)</t>
   </si>
   <si>
-    <t>Trampoline</t>
-  </si>
-  <si>
-    <t>SHAED</t>
-  </si>
-  <si>
     <t>I've been having dreams
 Jumping on a trampoline
 Flipping in the airI never land, just float there
@@ -4636,12 +4807,6 @@
 How am I so deep in love?
 When I dream of dying
 I never feel so loved</t>
-  </si>
-  <si>
-    <t>Leave Me Alone</t>
-  </si>
-  <si>
-    <t>Flipp Dinero</t>
   </si>
   <si>
     <t>Yah, yah
@@ -4735,9 +4900,6 @@
 Yah, yah, yah, yah</t>
   </si>
   <si>
-    <t>Breathin</t>
-  </si>
-  <si>
     <t>Lacigam gnihtemos od ot
 Thgin laiceps ruoy s'thginot tubSome days, things just take
 Way too much of my energy
@@ -4786,9 +4948,6 @@
 I keep on breathin', oh yeah
 Time goes by and I can't control my mind
 I keep on breathin', mmm, yeah</t>
-  </si>
-  <si>
-    <t>Bury A Friend</t>
   </si>
   <si>
     <t>Billie...
@@ -4852,18 +5011,6 @@
 Why aren't you scared of me?
 Why do you care for me?
 When we all fall asleep, where do we go?</t>
-  </si>
-  <si>
-    <t>Close Friends</t>
-  </si>
-  <si>
-    <t>Lil Baby</t>
-  </si>
-  <si>
-    <t>Baby Shark</t>
-  </si>
-  <si>
-    <t>Pinkfong</t>
   </si>
   <si>
     <t>Baby Shark
@@ -4930,12 +5077,6 @@
 It's the end</t>
   </si>
   <si>
-    <t>My Type</t>
-  </si>
-  <si>
-    <t>Saweetie</t>
-  </si>
-  <si>
     <t>Hennessy on my lips, take a little sip
 Privacy on the door, I'ma make the shit gripRich nigga, eight-figure, that's my type
 That's my type, nigga, that's my type
@@ -4987,12 +5128,6 @@
 That's my type, nigga, that's my type</t>
   </si>
   <si>
-    <t>Worth It</t>
-  </si>
-  <si>
-    <t>YK Osiris</t>
-  </si>
-  <si>
     <t>I would give you the world, nah, nah, nah
 You just gotta be worth it, yeah, yeah, yeah, yeahI would give you the world, baby girl
 You just gotta be worth it (Oh, oh, oh)
@@ -5041,9 +5176,6 @@
 You just gotta be worth it, yeah yeah
 But you don't gotta be perfect (Oh, oh, oh)
 You just gotta be worth it, yeah, yeah, yeah, nah, nah</t>
-  </si>
-  <si>
-    <t>Only Human</t>
   </si>
   <si>
     <t>Yeah, ayy
@@ -5104,12 +5236,6 @@
 Only human</t>
   </si>
   <si>
-    <t>Knockin' Boots</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
     <t>This truck needs a half tank
 These wheels need a two-lane
 This radio needs three songs to playTo get me across town to you
@@ -5164,12 +5290,6 @@
 Mmm, knockin' boots
 Me and you, oh
 Knockin' boots</t>
-  </si>
-  <si>
-    <t>Trip</t>
-  </si>
-  <si>
-    <t>Ella Mai</t>
   </si>
   <si>
     <t>Oooh, yeah, yeah
@@ -5229,12 +5349,6 @@
 Ooh, yeah, yeah</t>
   </si>
   <si>
-    <t>Rumor</t>
-  </si>
-  <si>
-    <t>Lee Brice</t>
-  </si>
-  <si>
     <t>Girl you know I've known you forever
 How many nights we hung out together
 Same little crowd, little bar, little townRound this old dance floor
@@ -5271,12 +5385,6 @@
 What d'you say we make it-
 Make it true?
 What d'you say we make it true?</t>
-  </si>
-  <si>
-    <t>Swervin</t>
-  </si>
-  <si>
-    <t>A Boogie Wit da Hoodie Featuring 6ix9ine</t>
   </si>
   <si>
     <t>Uh
@@ -5371,12 +5479,6 @@
 We got London On Da Track</t>
   </si>
   <si>
-    <t>How Do You Sleep?</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>I'm done hating myself for feeling
 I'm done crying myself away
 I've gotta leave and start the healingBut when you move like that, I just want to stay
@@ -5420,12 +5522,6 @@
 All that fear and all that pressure
 I'm hoping that my love will keep you up tonight
 (Tell me how do you)</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Lil Baby &amp; DaBaby</t>
   </si>
   <si>
     <t>They say he likes a good time
@@ -5492,12 +5588,6 @@
 He's only here for one thing, but (So am I)</t>
   </si>
   <si>
-    <t>Look What God Gave Her</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
-  </si>
-  <si>
     <t>Don't even want the attention
 But yeah, that's all that she's getting
 Her song is on and she's spinning around, yeahShe got me drunk like Corona
@@ -5553,12 +5643,6 @@
 Oh yeah, look what God gave her</t>
   </si>
   <si>
-    <t>Good As You</t>
-  </si>
-  <si>
-    <t>Kane Brown</t>
-  </si>
-  <si>
     <t>See the way you're taking care of your Mama
 The way you're taking care of me
 The way you light up any room girlYou're what this world should be
@@ -5593,12 +5677,6 @@
 (A hundred lifetimes)
 But baby, I just wanna be good as you
 Baby, I just wanna be good as you</t>
-  </si>
-  <si>
-    <t>Clout</t>
-  </si>
-  <si>
-    <t>Offset Featuring Cardi B</t>
   </si>
   <si>
     <t>Diamonds on fleek
@@ -5716,12 +5794,6 @@
 Do anything for clout</t>
   </si>
   <si>
-    <t>Love Lies</t>
-  </si>
-  <si>
-    <t>Khalid &amp; Normani</t>
-  </si>
-  <si>
     <t>Sorry if it's hard to catch my vibe, mmm
 I need a lover to trust, tell me you're on my side
 Are you down for the ride?It's not easy for someone to catch my eye
@@ -5770,12 +5842,6 @@
 Waste the day and spend the night (yeah, yeah)
 Underneath the sunrise (ooh)
 Show me where your love lies</t>
-  </si>
-  <si>
-    <t>One Thing Right</t>
-  </si>
-  <si>
-    <t>Marshmello &amp; Kane Brown</t>
   </si>
   <si>
     <t>I've cheated and I've lied
@@ -5837,12 +5903,6 @@
 Chasing all the wrong things most of my life
 Been every kind of lost that you can't find
 But I got one thing right (I got one thing right)</t>
-  </si>
-  <si>
-    <t>Cash Shit</t>
-  </si>
-  <si>
-    <t>Megan Thee Stallion Featuring DaBaby</t>
   </si>
   <si>
     <t>Real hot girl shit
@@ -5947,9 +6007,6 @@
 I'm on that cash shit, ah</t>
   </si>
   <si>
-    <t>Tequila</t>
-  </si>
-  <si>
     <t>I can still shut down a party
 I can hang with anybody
 I can drink whiskey and red wineChampagne all night
@@ -5984,12 +6041,6 @@
 When I taste tequila
 When I taste tequila
 When I taste tequila</t>
-  </si>
-  <si>
-    <t>Shotta Flow</t>
-  </si>
-  <si>
-    <t>NLE Choppa</t>
   </si>
   <si>
     <t>I wish everything I touch would turn to gold
@@ -6060,12 +6111,6 @@
 (Straight drop, lil' nigga, no cut)
 Keep all that, yeah, yeah
 (Up from my hip, yeah)</t>
-  </si>
-  <si>
-    <t>Hot Girl Summer</t>
-  </si>
-  <si>
-    <t>Megan Thee Stallion, Nicki Minaj &amp; Ty Dolla $ign</t>
   </si>
   <si>
     <t>Bone Collector, the plug
@@ -6154,12 +6199,6 @@
 Know we got it lit, yeah (aah)</t>
   </si>
   <si>
-    <t>Talk You Out Of It</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line</t>
-  </si>
-  <si>
     <t>Girl, I know you had a long day
 You ain't feelin' them downtown lights
 But I got a bottle at your favorite placeJust waitin' for us in a bucket on ice
@@ -6202,12 +6241,6 @@
 I'm looking at that fine little dress you got on
 Don't get me wrong, girl, I love it
 Now I just wanna talk you out of it</t>
-  </si>
-  <si>
-    <t>Beautiful</t>
-  </si>
-  <si>
-    <t>Bazzi Featuring Camila Cabello</t>
   </si>
   <si>
     <t>Hey
@@ -6255,12 +6288,6 @@
 So I just had to let you know (ah-ah, yeah)
 I just had to let you know
 Swear to God, you're beautiful, yeah</t>
-  </si>
-  <si>
-    <t>Eyes On You</t>
-  </si>
-  <si>
-    <t>Chase Rice</t>
   </si>
   <si>
     <t>We've been to both Carolina's
@@ -6316,9 +6343,6 @@
 Than you in my arms with my eyes on you</t>
   </si>
   <si>
-    <t>All To Myself</t>
-  </si>
-  <si>
     <t>I'm jealous of the blue jeans that you're wearin'
 And the way they're holdin' you so tight
 I'm jealous of the moon that keeps on starin'So lock the door and turn out the night
@@ -6367,12 +6391,6 @@
 All
 All to myself
 To myself, yeah</t>
-  </si>
-  <si>
-    <t>Boyfriend</t>
-  </si>
-  <si>
-    <t>Ariana Grande &amp; Social House</t>
   </si>
   <si>
     <t>I'm a motherfuckin' train wreck
@@ -6441,12 +6459,6 @@
 Baby, we ain't gotta tell nobody</t>
   </si>
   <si>
-    <t>Walk Me Home</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
     <t>There's something in the way you roll your eyes
 Takes me back to a better time
 When I saw everything is goodBut now you're the only thing that's good
@@ -6478,9 +6490,6 @@
 'Cause there is so much wrong
 There is so much wrong
 There is so much wrong going on outside</t>
-  </si>
-  <si>
-    <t>Robbery</t>
   </si>
   <si>
     <t>Man, what?
@@ -6545,16 +6554,84 @@
 It's a gift and a curse
 But I cannot reverse it</t>
   </si>
+  <si>
+    <t>Oh, this the one right here, Wicked?
+Okay
+Yeah, yeah
+Run that back, Turbo
+We started off as close friends (close friends)
+Somehow you turned into my girlfriend (my girlfriend)
+We used to tell each other everything (everything)
+I even went and bought her diamond rings, matching earrings
+Everything was so cool (so cool)
+Lately baby been actin' so rude (been so rude)
+I don't know what somebody told you (what they told you)
+But I ain't gon' lie, I miss the old you
+I know you remember how I would hold you
+Still remember how I approached you
+I think I loved you 'fore I knew you
+Know we be fuckin' 'fore I screwed you
+Made a promise I won't use you
+Play my cards right, I won't lose you
+Got 'em tuned in like I'm YouTube
+Got somethin' on me like it's voodoo
+I'll go nuts for you, go cuckoo, lose my cool and all
+And I know that shit was wrong, I shouldn't've did what I did
+Just wipe your eyes and stop this cryin'
+I told the truth, that I'd been lyin'
+I gave you racks, I tried to buy in
+I even did the unthinkable, and I'm sorry for what I did to you
+Take me back, if I was you and I did what I did
+I probably would, I probably wouldn't
+Take you back, if I was you and I did what I did
+I probably would, I probably wouldn't
+Just wipe your eyes and stop this cryin'
+I told the truth, that I'd been lyin'
+I gave you racks, I tried to buy in
+I even did the unthinkable, and I'm sorry for what I did to you
+We started off as close friends (close friends)
+Somehow you turned into my girlfriend (my girlfriend)
+We used to tell each other everything (everything)
+I even went and bought her diamond rings, matching earrings
+Everything was so cool (so cool)
+Lately baby been actin' so rude (been so rude)
+I don't know what somebody told you (what they told you)
+But I ain't gon' lie, I miss the old you
+Keep our business to ourselves
+The internet ain't doin' no help
+I know I shouldn't've never left
+But everything I did for us
+And us, I'm speakin' on my kids
+Thinkin' 'bout this shit I did
+Like how the hell I get myself involved in this bullshit?
+Married to the game, I can't make you my fiancée
+Bad young boss bitch, treat her like Beyoncé
+But damn what them broads say, I fucked them all the first day
+And that's why you trippin' anyway, like when I fuck 'em I don't pay
+Even if we never speak again
+I'll make sure you're ridin' in the latest Benz
+Keep your business all apart if you can stay out of mine
+Bought a brand new Audemars, but I done ran out of time
+We started off as close friends (close friends)
+Somehow you turned into my girlfriend (my girlfriend)
+We used to tell each other everything (everything)
+I even went and bought her diamond rings, matching earrings
+Everything was so cool (so cool)
+Lately baby been actin' so rude (been so rude)
+I don't know what somebody told you (what they told you)
+But I ain't gon' lie, I miss the old you</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6562,8 +6639,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6575,7 +6659,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6583,24 +6667,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6642,7 +6752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6674,9 +6784,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6708,6 +6836,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6883,1105 +7029,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>244</v>
-      </c>
-      <c r="B87" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>247</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>258</v>
-      </c>
-      <c r="B92" t="s">
-        <v>259</v>
-      </c>
-      <c r="C92" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>261</v>
-      </c>
-      <c r="B93" t="s">
-        <v>262</v>
-      </c>
-      <c r="C93" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>267</v>
-      </c>
-      <c r="B95" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B96" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>273</v>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>275</v>
+        <v>133</v>
+      </c>
+      <c r="D97" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>278</v>
+        <v>186</v>
+      </c>
+      <c r="D98" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>281</v>
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>282</v>
+      </c>
+      <c r="E99">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>145</v>
+      </c>
+      <c r="D100" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>